--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017463F-1AF3-4EDE-8621-02D9C1DDFCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90136AD9-30A4-4982-99A8-30A59AA2BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="408" yWindow="216" windowWidth="20556" windowHeight="10944" xr2:uid="{1E4E16F7-D59B-45FC-886F-D19854B9F1A9}"/>
+    <workbookView xWindow="4176" yWindow="1044" windowWidth="20556" windowHeight="10944" xr2:uid="{1E4E16F7-D59B-45FC-886F-D19854B9F1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -513,19 +513,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>アオト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浦安市入船x-x-x-x</t>
-    <rPh sb="0" eb="2">
-      <t>ウラヤス</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イリフネ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,13 +771,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -814,11 +801,11 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B77A1797-5B0F-4401-8A50-640AA9A1EA69}" name="NO" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E9A00679-116C-462A-AB39-39CF37A27B99}" name="氏名"/>
-    <tableColumn id="10" xr3:uid="{76838FE5-E863-4FDF-8A17-BFBDD480C363}" name="ふりがな" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{76838FE5-E863-4FDF-8A17-BFBDD480C363}" name="ふりがな" dataDxfId="2">
       <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D1A0E126-315E-4238-A183-EA79E049D652}" name="性別" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{5B1FBBCE-3CD0-4D13-B67E-97F1F9B51396}" name="年齢" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D1A0E126-315E-4238-A183-EA79E049D652}" name="性別" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5B1FBBCE-3CD0-4D13-B67E-97F1F9B51396}" name="年齢" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{8ED1A089-86E5-4072-9219-775AE8C9833A}" name="職業"/>
     <tableColumn id="6" xr3:uid="{040929EE-4C29-4112-9826-24BF19DFFDB3}" name="郵便番号"/>
     <tableColumn id="7" xr3:uid="{88CB0E3D-6668-4A60-BD32-FE146A77F876}" name="都道府県"/>
@@ -1128,7 +1115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C94E99-02E3-4845-9EA4-D40C3ECA52E8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1147,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1165,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -1179,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
@@ -1209,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
@@ -1239,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
@@ -1269,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
@@ -1282,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1299,404 +1288,401 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
       <c r="C6" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>はぎわら　よしお</v>
+        <v>うちだ　けいこ</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>うちだ　けいこ</v>
+        <v>みかみ　しんいち</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>みかみ　しんいち</v>
+        <v>きたやま　ひろこ</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
       <c r="C9" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>きたやま　ひろこ</v>
+        <v>たかぎ　かずみ</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>たかぎ　かずみ</v>
+        <v>なかむら　たいすけ</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
       </c>
       <c r="C11" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>なかむら　たいすけ</v>
+        <v>おかざき　だいご</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
       </c>
       <c r="C12" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>おかざき　だいご</v>
+        <v>やまもと　のりお</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>やまもと　のりお</v>
+        <v>さいとう　かおる</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
       </c>
       <c r="C14" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>さいとう　かおる</v>
+        <v>まえだ　たかし</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>まえだ　たかし</v>
+        <v>ひむら　あやこ</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
       </c>
       <c r="C16" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>ひむら　あやこ</v>
+        <v>はっとり　けんすけ</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
       </c>
       <c r="C17" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>はっとり　けんすけ</v>
+        <v>みずしま　あゆみ</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>みずしま　あゆみ</v>
+        <v>なかやま　ひろえ</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1704,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
@@ -1732,13 +1718,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19" xr:uid="{B0EC9BA9-307A-49A3-8395-971BEF13DEB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5 F6:F19" xr:uid="{B0EC9BA9-307A-49A3-8395-971BEF13DEB5}">
       <formula1>"会社員,自営業,フリーター,主婦,学生"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19" xr:uid="{587E0CD7-5AF2-440C-BF23-6EF877E18B24}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D19" xr:uid="{587E0CD7-5AF2-440C-BF23-6EF877E18B24}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19" xr:uid="{B31CF586-00E8-4CA0-9541-A456EF783ED8}"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 G6:G19" xr:uid="{B31CF586-00E8-4CA0-9541-A456EF783ED8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90136AD9-30A4-4982-99A8-30A59AA2BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="1044" windowWidth="20556" windowHeight="10944" xr2:uid="{1E4E16F7-D59B-45FC-886F-D19854B9F1A9}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20556" windowHeight="10944"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -715,7 +714,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -796,21 +795,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB4E69D-D973-46B4-80FF-B0D0AF3CE303}" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
-  <autoFilter ref="A1:J19" xr:uid="{ECB4E69D-D973-46B4-80FF-B0D0AF3CE303}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J18" totalsRowShown="0">
+  <autoFilter ref="A1:J18"/>
+  <sortState ref="A2:J18">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B77A1797-5B0F-4401-8A50-640AA9A1EA69}" name="NO" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E9A00679-116C-462A-AB39-39CF37A27B99}" name="氏名"/>
-    <tableColumn id="10" xr3:uid="{76838FE5-E863-4FDF-8A17-BFBDD480C363}" name="ふりがな" dataDxfId="2">
+    <tableColumn id="1" name="NO" dataDxfId="3"/>
+    <tableColumn id="2" name="氏名"/>
+    <tableColumn id="10" name="ふりがな" dataDxfId="2">
       <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D1A0E126-315E-4238-A183-EA79E049D652}" name="性別" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{5B1FBBCE-3CD0-4D13-B67E-97F1F9B51396}" name="年齢" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{8ED1A089-86E5-4072-9219-775AE8C9833A}" name="職業"/>
-    <tableColumn id="6" xr3:uid="{040929EE-4C29-4112-9826-24BF19DFFDB3}" name="郵便番号"/>
-    <tableColumn id="7" xr3:uid="{88CB0E3D-6668-4A60-BD32-FE146A77F876}" name="都道府県"/>
-    <tableColumn id="9" xr3:uid="{B658BA9D-D67E-47A1-ACAD-E32902F3CB81}" name="住所１"/>
-    <tableColumn id="8" xr3:uid="{AB3E5A07-808E-43F4-AA93-559A512C0766}" name="住所２"/>
+    <tableColumn id="3" name="性別" dataDxfId="1"/>
+    <tableColumn id="4" name="年齢" dataDxfId="0"/>
+    <tableColumn id="5" name="職業"/>
+    <tableColumn id="6" name="郵便番号"/>
+    <tableColumn id="7" name="都道府県"/>
+    <tableColumn id="9" name="住所１"/>
+    <tableColumn id="8" name="住所２"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C94E99-02E3-4845-9EA4-D40C3ECA52E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1686,49 +1688,25 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="str">
-        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>なかやま　ひろえ</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
+      <c r="A19"/>
+      <c r="D19"/>
+      <c r="E19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5 F6:F19" xr:uid="{B0EC9BA9-307A-49A3-8395-971BEF13DEB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18">
       <formula1>"会社員,自営業,フリーター,主婦,学生"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D19" xr:uid="{587E0CD7-5AF2-440C-BF23-6EF877E18B24}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 G6:G19" xr:uid="{B31CF586-00E8-4CA0-9541-A456EF783ED8}"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>